--- a/xlsx/国际关系学_intext.xlsx
+++ b/xlsx/国际关系学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="784">
   <si>
     <t>国际关系学</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E5%BC%8F%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>形式科學</t>
+    <t>形式科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%BB%E8%BE%91</t>
@@ -65,19 +65,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E8%AB%96%E8%A8%88%E7%AE%97%E6%A9%9F%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>理論計算機科學</t>
+    <t>理论计算机科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>物理科學</t>
+    <t>物理科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>化學</t>
+    <t>化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%B8%E7%A2%B1%E7%90%86%E8%AE%BA</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%88%86%E5%AD%90%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>超分子化學</t>
+    <t>超分子化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E8%89%B2%E5%8C%96%E5%AD%A6</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>食品化學</t>
+    <t>食品化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E5%8C%96%E5%AD%A6</t>
@@ -221,13 +221,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E5%85%B8%E7%89%A9%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>經典物理學</t>
+    <t>经典物理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E7%89%A9%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>現代物理學</t>
+    <t>现代物理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E7%89%A9%E7%90%86%E5%AD%A6</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E7%89%A9%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>實驗物理學</t>
+    <t>实验物理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E8%AE%BA%E7%89%A9%E7%90%86%E5%AD%A6</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%92%E5%AD%90%E7%89%A9%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>粒子物理學</t>
+    <t>粒子物理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E7%A6%BB%E5%AD%90%E4%BD%93</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E5%8A%9B%E5%AD%B8%E5%85%A5%E9%96%80</t>
   </si>
   <si>
-    <t>量子力學入門</t>
+    <t>量子力学入门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AD%E4%B9%89%E7%9B%B8%E5%AF%B9%E8%AE%BA</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E7%BE%A9%E7%9B%B8%E5%B0%8D%E8%AB%96</t>
   </si>
   <si>
-    <t>廣義相對論</t>
+    <t>广义相对论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E5%8F%98%E5%AD%A6</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%A6%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>弦理論</t>
+    <t>弦理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%8A%9B%E5%AD%A6</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>自然地理學</t>
+    <t>自然地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%B4%A8%E5%AD%A6</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E6%B2%BC%E5%AD%B8</t>
   </si>
   <si>
-    <t>湖沼學</t>
+    <t>湖沼学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%94%E8%B1%A1%E5%AD%A6</t>
@@ -461,13 +461,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%B0%A3%E5%80%99%E5%AD%B8</t>
   </si>
   <si>
-    <t>古氣候學</t>
+    <t>古气候学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>古生態學</t>
+    <t>古生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A2%E7%B2%89%E5%AD%A6</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>天文學</t>
+    <t>天文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%BD%93%E7%89%A9%E7%90%86%E5%AD%A6</t>
@@ -509,13 +509,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E6%B2%B3%E7%B3%BB%E5%A4%A9%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>銀河系天文學</t>
+    <t>银河系天文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%98%9F%E5%9C%B0%E8%B3%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>行星地質學</t>
+    <t>行星地质学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%98%9F%E7%A7%91%E5%AD%A6</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>生命科學</t>
+    <t>生命科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%A6</t>
@@ -551,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%AB%94%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>天體生物學</t>
+    <t>天体生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E7%90%86%E5%AD%A6</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%82%B2%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>保育生物學</t>
+    <t>保育生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E6%B8%A9%E7%94%9F%E7%89%A9%E5%AD%A6</t>
@@ -653,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E4%BA%BA%E5%AD%B8</t>
   </si>
   <si>
-    <t>老人學</t>
+    <t>老人学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E7%96%AB%E5%AD%A6</t>
@@ -707,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BE%E5%B0%84%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>放射生物學</t>
+    <t>放射生物学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Soil_biology</t>
@@ -719,13 +719,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會生物學</t>
+    <t>社会生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%B5%B1%E5%88%86%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>系統分類學</t>
+    <t>系统分类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%92%E7%90%86%E5%AD%A6</t>
@@ -761,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>犯罪學</t>
+    <t>犯罪学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AD%A6</t>
@@ -821,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>科學教育</t>
+    <t>科学教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -833,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用科學</t>
+    <t>应用科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%AD%A6</t>
@@ -881,13 +881,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>計算機工程</t>
+    <t>计算机工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%A9%9F%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>電機工程學</t>
+    <t>电机工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E9%98%B2%E5%B7%A5%E7%A8%8B</t>
@@ -917,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>軍事工程</t>
+    <t>军事工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%BF%E4%B8%9A%E5%B7%A5%E7%A8%8B</t>
@@ -935,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E7%B1%8C%E5%AD%B8</t>
   </si>
   <si>
-    <t>運籌學</t>
+    <t>运筹学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E5%99%A8%E4%BA%BA%E5%AD%A6</t>
@@ -959,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82%E8%A1%9B%E7%94%9F%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫療衛生科學</t>
+    <t>医疗卫生科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E5%AD%A6</t>
@@ -977,7 +977,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>牙醫學</t>
+    <t>牙医学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Midwifery</t>
@@ -1019,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物倫理學</t>
+    <t>生物伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E4%BF%A1%E6%81%AF%E5%AD%A6</t>
@@ -1031,7 +1031,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物統計學</t>
+    <t>生物统计学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A4%E7%9F%A5%E7%A7%91%E5%AD%A6</t>
@@ -1085,7 +1085,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>演化心理學</t>
+    <t>演化心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E7%A7%91%E5%AD%A6</t>
@@ -1109,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%90%86%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>數理生物學</t>
+    <t>数理生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6%E7%89%A9%E7%90%86</t>
@@ -1151,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%A6%E8%99%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>符號學</t>
+    <t>符号学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
@@ -1265,13 +1265,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>科學史</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>Template talk-科學</t>
+    <t>Template talk-科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -1283,7 +1280,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治學基本主題列表</t>
+    <t>政治学基本主题列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -1343,7 +1340,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -1355,7 +1352,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
@@ -1403,7 +1400,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>國際關係理論</t>
+    <t>国际关系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -1469,7 +1466,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -1487,7 +1484,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>司法機構</t>
+    <t>司法机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -1511,7 +1508,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
@@ -1631,7 +1628,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BC%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>亞伯大學</t>
+    <t>亚伯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6%E9%99%A2</t>
@@ -1709,7 +1706,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%8B%9E%E7%A7%80%E6%96%AF</t>
   </si>
   <si>
-    <t>格勞秀斯</t>
+    <t>格劳秀斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%B4%9B%E5%85%8B</t>
@@ -1787,7 +1784,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%87%E5%8B%A2</t>
   </si>
   <si>
-    <t>均勢</t>
+    <t>均势</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8A%B3%E5%A1%9E%E7%BB%B4%E8%8C%A8</t>
@@ -1811,7 +1808,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%96%AF%C2%B7%E6%91%A9%E6%A0%B9%E7%B4%A2</t>
   </si>
   <si>
-    <t>漢斯·摩根索</t>
+    <t>汉斯·摩根索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
@@ -1823,73 +1820,70 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>古典自由主義</t>
+    <t>古典自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新自由主義</t>
+    <t>新自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%92%8C%E5%B9%B3%E8%AB%96</t>
   </si>
   <si>
-    <t>民主和平論</t>
+    <t>民主和平论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%8F%BE%E5%AF%A6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>國際關係現實主義</t>
+    <t>国际关系现实主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%8F%BE%E5%AF%A6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新現實主義</t>
+    <t>新现实主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>馬克思主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新馬克思主義</t>
+    <t>新马克思主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E8%B3%B4%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>依賴理論</t>
+    <t>依赖理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%AB%94%E7%B3%BB%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>世界體系理論</t>
+    <t>世界体系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反思主義</t>
+    <t>反思主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>批判理論</t>
+    <t>批判理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>女性主義</t>
+    <t>女性主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E7%8E%B0%E4%BB%A3%E4%B8%BB%E4%B9%89</t>
@@ -1901,7 +1895,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>建構主義</t>
+    <t>建构主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E8%80%8C%E4%B8%8A%E5%AD%A6</t>
@@ -2021,7 +2015,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7%E9%81%B8%E6%93%87%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>理性選擇理論</t>
+    <t>理性选择理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
@@ -2045,7 +2039,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E6%A7%8B%E4%B8%BB%E7%BE%A9_(%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82)</t>
   </si>
   <si>
-    <t>建構主義 (國際關係)</t>
+    <t>建构主义 (国际关系)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80%E5%93%B2%E5%AD%A6</t>
@@ -2129,121 +2123,85 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會科學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>地理學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>人文地理學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>環境地理學</t>
+    <t>环境地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>歷史學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>法學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>國際關係</t>
+    <t>国际关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共行政學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9D%91%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>鄉村社會學</t>
+    <t>乡村社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>心理學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會心理學</t>
+    <t>社会心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>考古學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>文化人類學</t>
+    <t>文化人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E5%AD%B8</t>
   </si>
   <si>
-    <t>語言學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%88%87%E5%8B%95%E7%89%A9%E9%97%9C%E4%BF%82%E5%AD%B8</t>
   </si>
   <si>
-    <t>人與動物關係學</t>
+    <t>人与动物关系学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>區域研究</t>
+    <t>区域研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>商學</t>
+    <t>商学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%A5%9E%E7%BB%8F%E7%A7%91%E5%AD%A6</t>
@@ -2255,13 +2213,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知科學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%92%AD%E5%AD%B8</t>
   </si>
   <si>
-    <t>傳播學</t>
+    <t>传播学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Community_studies</t>
@@ -2279,9 +2234,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>教育學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
@@ -2309,7 +2261,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>人類生態學</t>
+    <t>人类生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E5%AD%A6</t>
@@ -2321,25 +2273,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>國際研究</t>
+    <t>国际研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>媒體研究</t>
+    <t>媒体研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>科學哲學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟哲學</t>
+    <t>经济哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2%E5%93%B2%E5%AD%A6</t>
@@ -2369,37 +2318,34 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E8%A6%8F%E5%8A%83</t>
   </si>
   <si>
-    <t>城市規劃</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治生態學</t>
+    <t>政治生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%9B%E7%94%9F</t>
   </si>
   <si>
-    <t>公共衛生</t>
+    <t>公共卫生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>區域經濟學</t>
+    <t>区域经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%8A%80%E8%88%87%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>科技與社會</t>
+    <t>科技与社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>科學研究</t>
+    <t>科学研究</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Geisteswissenschaft</t>
@@ -2411,7 +2357,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>人文科學</t>
+    <t>人文科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E5%AD%B8</t>
@@ -8794,7 +8740,7 @@
         <v>415</v>
       </c>
       <c r="F208" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8820,10 +8766,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>416</v>
+      </c>
+      <c r="F209" t="s">
         <v>417</v>
-      </c>
-      <c r="F209" t="s">
-        <v>418</v>
       </c>
       <c r="G209" t="n">
         <v>87</v>
@@ -8849,10 +8795,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>418</v>
+      </c>
+      <c r="F210" t="s">
         <v>419</v>
-      </c>
-      <c r="F210" t="s">
-        <v>420</v>
       </c>
       <c r="G210" t="n">
         <v>98</v>
@@ -8878,10 +8824,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>420</v>
+      </c>
+      <c r="F211" t="s">
         <v>421</v>
-      </c>
-      <c r="F211" t="s">
-        <v>422</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8907,10 +8853,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>422</v>
+      </c>
+      <c r="F212" t="s">
         <v>423</v>
-      </c>
-      <c r="F212" t="s">
-        <v>424</v>
       </c>
       <c r="G212" t="n">
         <v>3</v>
@@ -8936,10 +8882,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>424</v>
+      </c>
+      <c r="F213" t="s">
         <v>425</v>
-      </c>
-      <c r="F213" t="s">
-        <v>426</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -8965,10 +8911,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>426</v>
+      </c>
+      <c r="F214" t="s">
         <v>427</v>
-      </c>
-      <c r="F214" t="s">
-        <v>428</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8994,10 +8940,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>428</v>
+      </c>
+      <c r="F215" t="s">
         <v>429</v>
-      </c>
-      <c r="F215" t="s">
-        <v>430</v>
       </c>
       <c r="G215" t="n">
         <v>7</v>
@@ -9023,10 +8969,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>430</v>
+      </c>
+      <c r="F216" t="s">
         <v>431</v>
-      </c>
-      <c r="F216" t="s">
-        <v>432</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9052,10 +8998,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>432</v>
+      </c>
+      <c r="F217" t="s">
         <v>433</v>
-      </c>
-      <c r="F217" t="s">
-        <v>434</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -9081,10 +9027,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>434</v>
+      </c>
+      <c r="F218" t="s">
         <v>435</v>
-      </c>
-      <c r="F218" t="s">
-        <v>436</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9110,10 +9056,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>436</v>
+      </c>
+      <c r="F219" t="s">
         <v>437</v>
-      </c>
-      <c r="F219" t="s">
-        <v>438</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9139,10 +9085,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>438</v>
+      </c>
+      <c r="F220" t="s">
         <v>439</v>
-      </c>
-      <c r="F220" t="s">
-        <v>440</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9168,10 +9114,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>440</v>
+      </c>
+      <c r="F221" t="s">
         <v>441</v>
-      </c>
-      <c r="F221" t="s">
-        <v>442</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9197,10 +9143,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>442</v>
+      </c>
+      <c r="F222" t="s">
         <v>443</v>
-      </c>
-      <c r="F222" t="s">
-        <v>444</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9226,10 +9172,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>444</v>
+      </c>
+      <c r="F223" t="s">
         <v>445</v>
-      </c>
-      <c r="F223" t="s">
-        <v>446</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9255,10 +9201,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>446</v>
+      </c>
+      <c r="F224" t="s">
         <v>447</v>
-      </c>
-      <c r="F224" t="s">
-        <v>448</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9284,10 +9230,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>448</v>
+      </c>
+      <c r="F225" t="s">
         <v>449</v>
-      </c>
-      <c r="F225" t="s">
-        <v>450</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9313,10 +9259,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>450</v>
+      </c>
+      <c r="F226" t="s">
         <v>451</v>
-      </c>
-      <c r="F226" t="s">
-        <v>452</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9342,10 +9288,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>452</v>
+      </c>
+      <c r="F227" t="s">
         <v>453</v>
-      </c>
-      <c r="F227" t="s">
-        <v>454</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -9371,10 +9317,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>454</v>
+      </c>
+      <c r="F228" t="s">
         <v>455</v>
-      </c>
-      <c r="F228" t="s">
-        <v>456</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9400,10 +9346,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>456</v>
+      </c>
+      <c r="F229" t="s">
         <v>457</v>
-      </c>
-      <c r="F229" t="s">
-        <v>458</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9429,10 +9375,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>458</v>
+      </c>
+      <c r="F230" t="s">
         <v>459</v>
-      </c>
-      <c r="F230" t="s">
-        <v>460</v>
       </c>
       <c r="G230" t="n">
         <v>3</v>
@@ -9458,10 +9404,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>460</v>
+      </c>
+      <c r="F231" t="s">
         <v>461</v>
-      </c>
-      <c r="F231" t="s">
-        <v>462</v>
       </c>
       <c r="G231" t="n">
         <v>45</v>
@@ -9487,10 +9433,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>462</v>
+      </c>
+      <c r="F232" t="s">
         <v>463</v>
-      </c>
-      <c r="F232" t="s">
-        <v>464</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9516,10 +9462,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>464</v>
+      </c>
+      <c r="F233" t="s">
         <v>465</v>
-      </c>
-      <c r="F233" t="s">
-        <v>466</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -9545,10 +9491,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>466</v>
+      </c>
+      <c r="F234" t="s">
         <v>467</v>
-      </c>
-      <c r="F234" t="s">
-        <v>468</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9574,10 +9520,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>468</v>
+      </c>
+      <c r="F235" t="s">
         <v>469</v>
-      </c>
-      <c r="F235" t="s">
-        <v>470</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9603,10 +9549,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>470</v>
+      </c>
+      <c r="F236" t="s">
         <v>471</v>
-      </c>
-      <c r="F236" t="s">
-        <v>472</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9632,10 +9578,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>472</v>
+      </c>
+      <c r="F237" t="s">
         <v>473</v>
-      </c>
-      <c r="F237" t="s">
-        <v>474</v>
       </c>
       <c r="G237" t="n">
         <v>13</v>
@@ -9661,10 +9607,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>474</v>
+      </c>
+      <c r="F238" t="s">
         <v>475</v>
-      </c>
-      <c r="F238" t="s">
-        <v>476</v>
       </c>
       <c r="G238" t="n">
         <v>3</v>
@@ -9690,10 +9636,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>476</v>
+      </c>
+      <c r="F239" t="s">
         <v>477</v>
-      </c>
-      <c r="F239" t="s">
-        <v>478</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9719,10 +9665,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>478</v>
+      </c>
+      <c r="F240" t="s">
         <v>479</v>
-      </c>
-      <c r="F240" t="s">
-        <v>480</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9748,10 +9694,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>480</v>
+      </c>
+      <c r="F241" t="s">
         <v>481</v>
-      </c>
-      <c r="F241" t="s">
-        <v>482</v>
       </c>
       <c r="G241" t="n">
         <v>4</v>
@@ -9777,10 +9723,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>482</v>
+      </c>
+      <c r="F242" t="s">
         <v>483</v>
-      </c>
-      <c r="F242" t="s">
-        <v>484</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9806,10 +9752,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>484</v>
+      </c>
+      <c r="F243" t="s">
         <v>485</v>
-      </c>
-      <c r="F243" t="s">
-        <v>486</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9835,10 +9781,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>486</v>
+      </c>
+      <c r="F244" t="s">
         <v>487</v>
-      </c>
-      <c r="F244" t="s">
-        <v>488</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9864,10 +9810,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>488</v>
+      </c>
+      <c r="F245" t="s">
         <v>489</v>
-      </c>
-      <c r="F245" t="s">
-        <v>490</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9893,10 +9839,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>490</v>
+      </c>
+      <c r="F246" t="s">
         <v>491</v>
-      </c>
-      <c r="F246" t="s">
-        <v>492</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9922,10 +9868,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>492</v>
+      </c>
+      <c r="F247" t="s">
         <v>493</v>
-      </c>
-      <c r="F247" t="s">
-        <v>494</v>
       </c>
       <c r="G247" t="n">
         <v>15</v>
@@ -9951,10 +9897,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>494</v>
+      </c>
+      <c r="F248" t="s">
         <v>495</v>
-      </c>
-      <c r="F248" t="s">
-        <v>496</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9980,10 +9926,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>496</v>
+      </c>
+      <c r="F249" t="s">
         <v>497</v>
-      </c>
-      <c r="F249" t="s">
-        <v>498</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10009,10 +9955,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>498</v>
+      </c>
+      <c r="F250" t="s">
         <v>499</v>
-      </c>
-      <c r="F250" t="s">
-        <v>500</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10038,10 +9984,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>500</v>
+      </c>
+      <c r="F251" t="s">
         <v>501</v>
-      </c>
-      <c r="F251" t="s">
-        <v>502</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10067,10 +10013,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>502</v>
+      </c>
+      <c r="F252" t="s">
         <v>503</v>
-      </c>
-      <c r="F252" t="s">
-        <v>504</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10096,10 +10042,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>504</v>
+      </c>
+      <c r="F253" t="s">
         <v>505</v>
-      </c>
-      <c r="F253" t="s">
-        <v>506</v>
       </c>
       <c r="G253" t="n">
         <v>3</v>
@@ -10125,10 +10071,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>506</v>
+      </c>
+      <c r="F254" t="s">
         <v>507</v>
-      </c>
-      <c r="F254" t="s">
-        <v>508</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10154,10 +10100,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>508</v>
+      </c>
+      <c r="F255" t="s">
         <v>509</v>
-      </c>
-      <c r="F255" t="s">
-        <v>510</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10183,10 +10129,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>510</v>
+      </c>
+      <c r="F256" t="s">
         <v>511</v>
-      </c>
-      <c r="F256" t="s">
-        <v>512</v>
       </c>
       <c r="G256" t="n">
         <v>11</v>
@@ -10212,10 +10158,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>512</v>
+      </c>
+      <c r="F257" t="s">
         <v>513</v>
-      </c>
-      <c r="F257" t="s">
-        <v>514</v>
       </c>
       <c r="G257" t="n">
         <v>3</v>
@@ -10241,10 +10187,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>514</v>
+      </c>
+      <c r="F258" t="s">
         <v>515</v>
-      </c>
-      <c r="F258" t="s">
-        <v>516</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10270,10 +10216,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>516</v>
+      </c>
+      <c r="F259" t="s">
         <v>517</v>
-      </c>
-      <c r="F259" t="s">
-        <v>518</v>
       </c>
       <c r="G259" t="n">
         <v>19</v>
@@ -10299,10 +10245,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>518</v>
+      </c>
+      <c r="F260" t="s">
         <v>519</v>
-      </c>
-      <c r="F260" t="s">
-        <v>520</v>
       </c>
       <c r="G260" t="n">
         <v>12</v>
@@ -10328,10 +10274,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>520</v>
+      </c>
+      <c r="F261" t="s">
         <v>521</v>
-      </c>
-      <c r="F261" t="s">
-        <v>522</v>
       </c>
       <c r="G261" t="n">
         <v>31</v>
@@ -10357,10 +10303,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>522</v>
+      </c>
+      <c r="F262" t="s">
         <v>523</v>
-      </c>
-      <c r="F262" t="s">
-        <v>524</v>
       </c>
       <c r="G262" t="n">
         <v>12</v>
@@ -10386,10 +10332,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>524</v>
+      </c>
+      <c r="F263" t="s">
         <v>525</v>
-      </c>
-      <c r="F263" t="s">
-        <v>526</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -10415,10 +10361,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>526</v>
+      </c>
+      <c r="F264" t="s">
         <v>527</v>
-      </c>
-      <c r="F264" t="s">
-        <v>528</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10444,10 +10390,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>528</v>
+      </c>
+      <c r="F265" t="s">
         <v>529</v>
-      </c>
-      <c r="F265" t="s">
-        <v>530</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10473,10 +10419,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>530</v>
+      </c>
+      <c r="F266" t="s">
         <v>531</v>
-      </c>
-      <c r="F266" t="s">
-        <v>532</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10502,10 +10448,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>532</v>
+      </c>
+      <c r="F267" t="s">
         <v>533</v>
-      </c>
-      <c r="F267" t="s">
-        <v>534</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10531,10 +10477,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>534</v>
+      </c>
+      <c r="F268" t="s">
         <v>535</v>
-      </c>
-      <c r="F268" t="s">
-        <v>536</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10560,10 +10506,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>536</v>
+      </c>
+      <c r="F269" t="s">
         <v>537</v>
-      </c>
-      <c r="F269" t="s">
-        <v>538</v>
       </c>
       <c r="G269" t="n">
         <v>5</v>
@@ -10589,10 +10535,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>538</v>
+      </c>
+      <c r="F270" t="s">
         <v>539</v>
-      </c>
-      <c r="F270" t="s">
-        <v>540</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -10618,10 +10564,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>540</v>
+      </c>
+      <c r="F271" t="s">
         <v>541</v>
-      </c>
-      <c r="F271" t="s">
-        <v>542</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -10647,10 +10593,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>542</v>
+      </c>
+      <c r="F272" t="s">
         <v>543</v>
-      </c>
-      <c r="F272" t="s">
-        <v>544</v>
       </c>
       <c r="G272" t="n">
         <v>9</v>
@@ -10676,10 +10622,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>544</v>
+      </c>
+      <c r="F273" t="s">
         <v>545</v>
-      </c>
-      <c r="F273" t="s">
-        <v>546</v>
       </c>
       <c r="G273" t="n">
         <v>6</v>
@@ -10705,10 +10651,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>546</v>
+      </c>
+      <c r="F274" t="s">
         <v>547</v>
-      </c>
-      <c r="F274" t="s">
-        <v>548</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -10734,10 +10680,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>548</v>
+      </c>
+      <c r="F275" t="s">
         <v>549</v>
-      </c>
-      <c r="F275" t="s">
-        <v>550</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10763,10 +10709,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>550</v>
+      </c>
+      <c r="F276" t="s">
         <v>551</v>
-      </c>
-      <c r="F276" t="s">
-        <v>552</v>
       </c>
       <c r="G276" t="n">
         <v>4</v>
@@ -10792,10 +10738,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
+        <v>552</v>
+      </c>
+      <c r="F277" t="s">
         <v>553</v>
-      </c>
-      <c r="F277" t="s">
-        <v>554</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10821,10 +10767,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
+        <v>554</v>
+      </c>
+      <c r="F278" t="s">
         <v>555</v>
-      </c>
-      <c r="F278" t="s">
-        <v>556</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10850,10 +10796,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>556</v>
+      </c>
+      <c r="F279" t="s">
         <v>557</v>
-      </c>
-      <c r="F279" t="s">
-        <v>558</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10879,10 +10825,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>558</v>
+      </c>
+      <c r="F280" t="s">
         <v>559</v>
-      </c>
-      <c r="F280" t="s">
-        <v>560</v>
       </c>
       <c r="G280" t="n">
         <v>3</v>
@@ -10908,10 +10854,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>560</v>
+      </c>
+      <c r="F281" t="s">
         <v>561</v>
-      </c>
-      <c r="F281" t="s">
-        <v>562</v>
       </c>
       <c r="G281" t="n">
         <v>3</v>
@@ -10937,10 +10883,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>562</v>
+      </c>
+      <c r="F282" t="s">
         <v>563</v>
-      </c>
-      <c r="F282" t="s">
-        <v>564</v>
       </c>
       <c r="G282" t="n">
         <v>2</v>
@@ -10966,10 +10912,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>564</v>
+      </c>
+      <c r="F283" t="s">
         <v>565</v>
-      </c>
-      <c r="F283" t="s">
-        <v>566</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -10995,10 +10941,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>566</v>
+      </c>
+      <c r="F284" t="s">
         <v>567</v>
-      </c>
-      <c r="F284" t="s">
-        <v>568</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11024,10 +10970,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>568</v>
+      </c>
+      <c r="F285" t="s">
         <v>569</v>
-      </c>
-      <c r="F285" t="s">
-        <v>570</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11053,10 +10999,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>570</v>
+      </c>
+      <c r="F286" t="s">
         <v>571</v>
-      </c>
-      <c r="F286" t="s">
-        <v>572</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11082,10 +11028,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
+        <v>572</v>
+      </c>
+      <c r="F287" t="s">
         <v>573</v>
-      </c>
-      <c r="F287" t="s">
-        <v>574</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11111,10 +11057,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
+        <v>574</v>
+      </c>
+      <c r="F288" t="s">
         <v>575</v>
-      </c>
-      <c r="F288" t="s">
-        <v>576</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11140,10 +11086,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
+        <v>576</v>
+      </c>
+      <c r="F289" t="s">
         <v>577</v>
-      </c>
-      <c r="F289" t="s">
-        <v>578</v>
       </c>
       <c r="G289" t="n">
         <v>3</v>
@@ -11169,10 +11115,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
+        <v>578</v>
+      </c>
+      <c r="F290" t="s">
         <v>579</v>
-      </c>
-      <c r="F290" t="s">
-        <v>580</v>
       </c>
       <c r="G290" t="n">
         <v>7</v>
@@ -11198,10 +11144,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
+        <v>580</v>
+      </c>
+      <c r="F291" t="s">
         <v>581</v>
-      </c>
-      <c r="F291" t="s">
-        <v>582</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11227,10 +11173,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
+        <v>582</v>
+      </c>
+      <c r="F292" t="s">
         <v>583</v>
-      </c>
-      <c r="F292" t="s">
-        <v>584</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11256,10 +11202,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
+        <v>584</v>
+      </c>
+      <c r="F293" t="s">
         <v>585</v>
-      </c>
-      <c r="F293" t="s">
-        <v>586</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11285,10 +11231,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
+        <v>586</v>
+      </c>
+      <c r="F294" t="s">
         <v>587</v>
-      </c>
-      <c r="F294" t="s">
-        <v>588</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11314,10 +11260,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
+        <v>588</v>
+      </c>
+      <c r="F295" t="s">
         <v>589</v>
-      </c>
-      <c r="F295" t="s">
-        <v>590</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11343,10 +11289,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
+        <v>590</v>
+      </c>
+      <c r="F296" t="s">
         <v>591</v>
-      </c>
-      <c r="F296" t="s">
-        <v>592</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11372,10 +11318,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
+        <v>592</v>
+      </c>
+      <c r="F297" t="s">
         <v>593</v>
-      </c>
-      <c r="F297" t="s">
-        <v>594</v>
       </c>
       <c r="G297" t="n">
         <v>5</v>
@@ -11401,10 +11347,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
+        <v>594</v>
+      </c>
+      <c r="F298" t="s">
         <v>595</v>
-      </c>
-      <c r="F298" t="s">
-        <v>596</v>
       </c>
       <c r="G298" t="n">
         <v>3</v>
@@ -11430,10 +11376,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
+        <v>596</v>
+      </c>
+      <c r="F299" t="s">
         <v>597</v>
-      </c>
-      <c r="F299" t="s">
-        <v>598</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -11459,10 +11405,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
+        <v>460</v>
+      </c>
+      <c r="F300" t="s">
         <v>461</v>
-      </c>
-      <c r="F300" t="s">
-        <v>462</v>
       </c>
       <c r="G300" t="n">
         <v>2</v>
@@ -11488,10 +11434,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
+        <v>598</v>
+      </c>
+      <c r="F301" t="s">
         <v>599</v>
-      </c>
-      <c r="F301" t="s">
-        <v>600</v>
       </c>
       <c r="G301" t="n">
         <v>24</v>
@@ -11517,10 +11463,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
+        <v>600</v>
+      </c>
+      <c r="F302" t="s">
         <v>601</v>
-      </c>
-      <c r="F302" t="s">
-        <v>602</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11546,10 +11492,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
+        <v>602</v>
+      </c>
+      <c r="F303" t="s">
         <v>603</v>
-      </c>
-      <c r="F303" t="s">
-        <v>604</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11575,10 +11521,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
+        <v>604</v>
+      </c>
+      <c r="F304" t="s">
         <v>605</v>
-      </c>
-      <c r="F304" t="s">
-        <v>606</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11604,10 +11550,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
+        <v>606</v>
+      </c>
+      <c r="F305" t="s">
         <v>607</v>
-      </c>
-      <c r="F305" t="s">
-        <v>608</v>
       </c>
       <c r="G305" t="n">
         <v>7</v>
@@ -11633,10 +11579,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
+        <v>606</v>
+      </c>
+      <c r="F306" t="s">
         <v>607</v>
-      </c>
-      <c r="F306" t="s">
-        <v>608</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11662,10 +11608,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
+        <v>608</v>
+      </c>
+      <c r="F307" t="s">
         <v>609</v>
-      </c>
-      <c r="F307" t="s">
-        <v>610</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11691,10 +11637,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F308" t="s">
-        <v>612</v>
+        <v>579</v>
       </c>
       <c r="G308" t="n">
         <v>2</v>
@@ -11720,10 +11666,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F309" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11749,10 +11695,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F310" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11778,10 +11724,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F311" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11807,10 +11753,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F312" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G312" t="n">
         <v>4</v>
@@ -11836,10 +11782,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F313" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11865,10 +11811,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F314" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11894,10 +11840,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F315" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11923,10 +11869,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F316" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G316" t="n">
         <v>21</v>
@@ -11952,10 +11898,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F317" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11981,10 +11927,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F318" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12010,10 +11956,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F319" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12039,10 +11985,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F320" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12068,10 +12014,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F321" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12097,10 +12043,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F322" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12126,10 +12072,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F323" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12155,10 +12101,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F324" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12184,10 +12130,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F325" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12213,10 +12159,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F326" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12242,10 +12188,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F327" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G327" t="n">
         <v>3</v>
@@ -12271,10 +12217,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F328" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12300,10 +12246,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F329" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12329,10 +12275,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F330" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12358,10 +12304,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
+        <v>606</v>
+      </c>
+      <c r="F331" t="s">
         <v>607</v>
-      </c>
-      <c r="F331" t="s">
-        <v>608</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12387,10 +12333,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
+        <v>606</v>
+      </c>
+      <c r="F332" t="s">
         <v>607</v>
-      </c>
-      <c r="F332" t="s">
-        <v>608</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -12416,10 +12362,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
+        <v>460</v>
+      </c>
+      <c r="F333" t="s">
         <v>461</v>
-      </c>
-      <c r="F333" t="s">
-        <v>462</v>
       </c>
       <c r="G333" t="n">
         <v>12</v>
@@ -12445,10 +12391,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F334" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12474,10 +12420,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F335" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G335" t="n">
         <v>3</v>
@@ -12503,10 +12449,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F336" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12532,10 +12478,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F337" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G337" t="n">
         <v>2</v>
@@ -12561,10 +12507,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F338" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G338" t="n">
         <v>3</v>
@@ -12590,10 +12536,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F339" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12619,10 +12565,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F340" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G340" t="n">
         <v>3</v>
@@ -12648,10 +12594,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F341" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12677,10 +12623,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F342" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12706,10 +12652,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F343" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12735,10 +12681,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F344" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12764,10 +12710,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F345" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G345" t="n">
         <v>3</v>
@@ -12793,10 +12739,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F346" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12822,10 +12768,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F347" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12851,10 +12797,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F348" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12880,10 +12826,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F349" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12909,10 +12855,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F350" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12938,10 +12884,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F351" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12967,10 +12913,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F352" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12996,10 +12942,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F353" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G353" t="n">
         <v>11</v>
@@ -13025,10 +12971,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F354" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13054,10 +13000,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F355" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G355" t="n">
         <v>2</v>
@@ -13083,10 +13029,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F356" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13112,10 +13058,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F357" t="s">
-        <v>704</v>
+        <v>242</v>
       </c>
       <c r="G357" t="n">
         <v>5</v>
@@ -13141,10 +13087,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F358" t="s">
-        <v>706</v>
+        <v>128</v>
       </c>
       <c r="G358" t="n">
         <v>2</v>
@@ -13170,10 +13116,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F359" t="s">
-        <v>708</v>
+        <v>254</v>
       </c>
       <c r="G359" t="n">
         <v>3</v>
@@ -13199,10 +13145,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F360" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G360" t="n">
         <v>3</v>
@@ -13228,10 +13174,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F361" t="s">
-        <v>712</v>
+        <v>525</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13257,10 +13203,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="F362" t="s">
-        <v>714</v>
+        <v>258</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13286,10 +13232,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="F363" t="s">
-        <v>716</v>
+        <v>264</v>
       </c>
       <c r="G363" t="n">
         <v>3</v>
@@ -13315,10 +13261,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="F364" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="G364" t="n">
         <v>13</v>
@@ -13344,10 +13290,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="F365" t="s">
-        <v>720</v>
+        <v>465</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13373,10 +13319,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="F366" t="s">
-        <v>722</v>
+        <v>252</v>
       </c>
       <c r="G366" t="n">
         <v>3</v>
@@ -13402,10 +13348,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="F367" t="s">
-        <v>724</v>
+        <v>270</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13460,10 +13406,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="F369" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13489,10 +13435,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="F370" t="s">
-        <v>728</v>
+        <v>266</v>
       </c>
       <c r="G370" t="n">
         <v>2</v>
@@ -13518,10 +13464,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="F371" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="G371" t="n">
         <v>12</v>
@@ -13547,10 +13493,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="F372" t="s">
-        <v>732</v>
+        <v>246</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13576,10 +13522,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="F373" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="G373" t="n">
         <v>7</v>
@@ -13605,10 +13551,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="F374" t="s">
-        <v>736</v>
+        <v>260</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13634,10 +13580,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="F375" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13663,10 +13609,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="F376" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13692,10 +13638,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="F377" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13721,10 +13667,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="F378" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13750,10 +13696,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="F379" t="s">
-        <v>746</v>
+        <v>340</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13779,10 +13725,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="F380" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13808,10 +13754,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="F381" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13837,10 +13783,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="F382" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13866,10 +13812,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
       <c r="F383" t="s">
-        <v>754</v>
+        <v>262</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13895,10 +13841,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="F384" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13924,10 +13870,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="F385" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13953,10 +13899,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="F386" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13982,10 +13928,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="F387" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14011,10 +13957,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="F388" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14040,10 +13986,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="F389" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="G389" t="n">
         <v>2</v>
@@ -14069,10 +14015,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="F390" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14098,10 +14044,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="F391" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14127,10 +14073,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="F392" t="s">
-        <v>772</v>
+        <v>388</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14156,10 +14102,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="F393" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
       <c r="G393" t="n">
         <v>4</v>
@@ -14185,10 +14131,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>775</v>
+        <v>758</v>
       </c>
       <c r="F394" t="s">
-        <v>776</v>
+        <v>759</v>
       </c>
       <c r="G394" t="n">
         <v>3</v>
@@ -14214,10 +14160,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>777</v>
+        <v>760</v>
       </c>
       <c r="F395" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="G395" t="n">
         <v>7</v>
@@ -14243,10 +14189,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>779</v>
+        <v>762</v>
       </c>
       <c r="F396" t="s">
-        <v>780</v>
+        <v>763</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14272,10 +14218,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="F397" t="s">
-        <v>782</v>
+        <v>765</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14301,10 +14247,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>783</v>
+        <v>766</v>
       </c>
       <c r="F398" t="s">
-        <v>784</v>
+        <v>384</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14330,10 +14276,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
       <c r="F399" t="s">
-        <v>786</v>
+        <v>768</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14359,10 +14305,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
+        <v>422</v>
+      </c>
+      <c r="F400" t="s">
         <v>423</v>
-      </c>
-      <c r="F400" t="s">
-        <v>424</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14388,10 +14334,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>787</v>
+        <v>769</v>
       </c>
       <c r="F401" t="s">
-        <v>788</v>
+        <v>770</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14417,10 +14363,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>789</v>
+        <v>771</v>
       </c>
       <c r="F402" t="s">
-        <v>790</v>
+        <v>772</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14446,10 +14392,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>791</v>
+        <v>773</v>
       </c>
       <c r="F403" t="s">
-        <v>792</v>
+        <v>774</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14475,10 +14421,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>793</v>
+        <v>775</v>
       </c>
       <c r="F404" t="s">
-        <v>794</v>
+        <v>776</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14504,10 +14450,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>795</v>
+        <v>777</v>
       </c>
       <c r="F405" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14533,10 +14479,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>797</v>
+        <v>779</v>
       </c>
       <c r="F406" t="s">
-        <v>798</v>
+        <v>780</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14562,10 +14508,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
       <c r="F407" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
       <c r="G407" t="n">
         <v>8</v>
@@ -14591,10 +14537,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
       <c r="F408" t="s">
-        <v>801</v>
+        <v>783</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
